--- a/booklets/cocomo_estimation.xlsx
+++ b/booklets/cocomo_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoca\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81E7D9-6F90-4E02-BF42-9D7195E3FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005979C-898B-4A06-9D55-B21D61C44A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COCOMO II Calculations" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="171">
   <si>
     <t>COCOMO II - EFFORT AND DURATION CALCULATION</t>
   </si>
@@ -107,21 +107,36 @@
     <t>Nominal</t>
   </si>
   <si>
+    <t>Experience in similar projects</t>
+  </si>
+  <si>
     <t>FLEX (Development Flexibility)</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
+    <t>Requirements flexibility</t>
+  </si>
+  <si>
     <t>RESL (Risk Resolution)</t>
   </si>
   <si>
+    <t>Risk management</t>
+  </si>
+  <si>
     <t>TEAM (Team Cohesion)</t>
   </si>
   <si>
+    <t>Team cohesion</t>
+  </si>
+  <si>
     <t>PMAT (Process Maturity)</t>
   </si>
   <si>
+    <t>Process maturity</t>
+  </si>
+  <si>
     <t>Sum of Scale Factors (Σ SF)</t>
   </si>
   <si>
@@ -143,67 +158,121 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>PRODUCT</t>
   </si>
   <si>
     <t>RELY (Required Reliability)</t>
   </si>
   <si>
+    <t>Required reliability</t>
+  </si>
+  <si>
     <t>DATA (Database Size)</t>
   </si>
   <si>
+    <t>Database size</t>
+  </si>
+  <si>
     <t>CPLX (Product Complexity)</t>
   </si>
   <si>
+    <t>Product complexity</t>
+  </si>
+  <si>
     <t>RUSE (Reuse Required)</t>
   </si>
   <si>
+    <t>Required reusability</t>
+  </si>
+  <si>
     <t>DOCU (Documentation)</t>
   </si>
   <si>
+    <t>Documentation needs</t>
+  </si>
+  <si>
     <t>PLATFORM</t>
   </si>
   <si>
     <t>TIME (Execution Time)</t>
   </si>
   <si>
+    <t>Execution time constraints</t>
+  </si>
+  <si>
     <t>STOR (Main Storage)</t>
   </si>
   <si>
+    <t>Memory constraints</t>
+  </si>
+  <si>
     <t>PVOL (Platform Volatility)</t>
   </si>
   <si>
+    <t>Platform volatility</t>
+  </si>
+  <si>
     <t>PERSONNEL</t>
   </si>
   <si>
     <t>ACAP (Analyst Capability)</t>
   </si>
   <si>
+    <t>Analyst capability</t>
+  </si>
+  <si>
     <t>PCAP (Programmer Capability)</t>
   </si>
   <si>
+    <t>Programmer capability</t>
+  </si>
+  <si>
     <t>PCON (Personnel Continuity)</t>
   </si>
   <si>
+    <t>Personnel continuity</t>
+  </si>
+  <si>
     <t>APEX (Applications Experience)</t>
   </si>
   <si>
+    <t>Applications experience</t>
+  </si>
+  <si>
     <t>PLEX (Platform Experience)</t>
   </si>
   <si>
+    <t>Platform experience</t>
+  </si>
+  <si>
     <t>LTEX (Language &amp; Tools Exp)</t>
   </si>
   <si>
+    <t>Language/tools experience</t>
+  </si>
+  <si>
     <t>PROJECT</t>
   </si>
   <si>
     <t>TOOL (Use of Tools)</t>
   </si>
   <si>
+    <t>Use of CASE tools</t>
+  </si>
+  <si>
     <t>SITE (Multisite Development)</t>
   </si>
   <si>
+    <t>Multisite development</t>
+  </si>
+  <si>
     <t>SCED (Schedule Constraint)</t>
+  </si>
+  <si>
+    <t>Schedule constraints</t>
   </si>
   <si>
     <t>Product of Effort Multipliers (∏ EM)</t>
@@ -842,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,61 +1053,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>48.56</v>
+      </c>
+      <c r="D13">
         <v>15</v>
+      </c>
+      <c r="E13">
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>61.8</v>
+        <v>13.24</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>927</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -1047,44 +1132,44 @@
         <v>13.24</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>622</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>4.41</v>
+        <v>13.24</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E16">
-        <v>66</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>8.83</v>
-      </c>
-      <c r="D17">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>565</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1098,41 +1183,41 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2.1800000000000002</v>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -1140,13 +1225,16 @@
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>3.72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -1154,13 +1242,16 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>3.72</v>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1168,13 +1259,16 @@
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>2.0299999999999998</v>
+        <v>4.24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -1182,13 +1276,16 @@
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
       <c r="C25">
-        <v>4.24</v>
+        <v>2.19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -1196,13 +1293,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>2.19</v>
+        <v>4.68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -1210,13 +1310,16 @@
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>4.68</v>
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -1224,13 +1327,13 @@
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
+      <c r="C28">
+        <v>16.86</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1241,16 +1344,16 @@
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>16.86</v>
+        <v>0.91</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -1258,50 +1361,50 @@
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.91</v>
+        <v>1.0786</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1.0786</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -1309,13 +1412,16 @@
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>0.92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -1323,13 +1429,16 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>0.92</v>
+        <v>0.9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
@@ -1340,10 +1449,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C36">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1354,10 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
       </c>
       <c r="E37" t="s">
         <v>1</v>
@@ -1368,10 +1483,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>1</v>
@@ -1379,13 +1497,16 @@
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
@@ -1393,13 +1514,16 @@
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
       </c>
       <c r="E40" t="s">
         <v>1</v>
@@ -1410,10 +1534,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -1421,13 +1548,16 @@
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -1435,13 +1565,16 @@
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -1452,10 +1585,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -1466,10 +1602,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -1480,10 +1619,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -1494,10 +1636,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C47">
         <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
       </c>
       <c r="E47" t="s">
         <v>1</v>
@@ -1505,13 +1650,16 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
@@ -1519,13 +1667,16 @@
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -1536,10 +1687,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C50">
         <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
@@ -1550,9 +1704,12 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>1</v>
       </c>
       <c r="E51" t="s">
@@ -1561,13 +1718,13 @@
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
-        <v>1</v>
+      <c r="C52">
+        <v>0.83</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -1576,32 +1733,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0.83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -1612,13 +1769,13 @@
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="B56">
+        <v>2.94</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -1629,13 +1786,13 @@
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B57">
-        <v>2.94</v>
+        <v>2.4</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -1646,13 +1803,13 @@
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B58">
-        <v>2.1800000000000002</v>
+        <v>1.0786</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -1663,13 +1820,13 @@
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B59">
-        <v>1.0786</v>
+        <v>0.83</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -1680,13 +1837,13 @@
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60">
-        <v>0.83</v>
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -1697,13 +1854,13 @@
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="B61">
+        <v>6.37</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -1712,32 +1869,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62">
-        <v>5.39</v>
-      </c>
-      <c r="C62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -1748,13 +1905,13 @@
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="B65">
+        <v>0.28000000000000003</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -1765,13 +1922,13 @@
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B66">
-        <v>0.28000000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -1782,13 +1939,13 @@
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B67">
-        <v>0.91</v>
+        <v>1.0786</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -1799,44 +1956,44 @@
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B68">
-        <v>1.0786</v>
+        <v>0.31369999999999998</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B69">
-        <v>0.31369999999999998</v>
+        <v>3.67</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B70">
-        <v>3.67</v>
+        <v>6.37</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -1847,13 +2004,13 @@
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71">
-        <v>5.39</v>
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -1864,13 +2021,13 @@
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <v>6.38</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -1879,32 +2036,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73">
-        <v>6.06</v>
-      </c>
-      <c r="C73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
+    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -1915,13 +2072,13 @@
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="B76">
+        <v>6.37</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -1932,13 +2089,13 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B77">
-        <v>5.39</v>
+        <v>6.38</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -1949,13 +2106,13 @@
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>6.06</v>
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -1966,13 +2123,13 @@
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -1981,32 +2138,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.89</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
+    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -2017,13 +2174,13 @@
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="B84">
+        <v>2.12</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -2034,13 +2191,13 @@
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B85">
-        <v>1.8</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -2051,35 +2208,18 @@
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B86">
-        <v>36</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87">
-        <v>288</v>
-      </c>
-      <c r="C87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2090,17 +2230,17 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A63:E87 A62 C62:E62 A11:E21 B2:E2 C3:E3 B4:E4 A5:E9 A35:C35 A34:C34 E34 A52:E61 A51:C51 E51 A50:C50 E50 A49:C49 E49 A48:C48 E48 A47:C47 E47 A46:C46 E46 A45:C45 E45 A44:C44 E44 A43:C43 E43 A42:C42 E42 A41:C41 E41 A40:C40 E40 A39:C39 E39 A38:C38 E38 A37:C37 E37 A36:C36 E36 E35 A28:E33 A27:C27 E27 A26:C26 E26 A25:C25 E25 A24:C24 E24 A23:C23 E23 A22:C22 E22" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 A4:E86 C3:E3 B2:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,7 +2253,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2127,7 +2267,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2141,7 +2281,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2169,13 +2309,13 @@
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>6.2</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -2183,13 +2323,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>4.96</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -2203,7 +2343,7 @@
         <v>3.72</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -2211,13 +2351,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>2.48</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2225,13 +2365,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>1.24</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -2239,13 +2379,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -2253,7 +2393,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2281,13 +2421,13 @@
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <v>5.07</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -2295,13 +2435,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <v>4.05</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -2315,7 +2455,7 @@
         <v>3.04</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -2323,13 +2463,13 @@
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>2.0299999999999998</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -2337,13 +2477,13 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>1.01</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -2351,13 +2491,13 @@
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -2365,7 +2505,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2393,13 +2533,13 @@
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B25">
         <v>7.07</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -2407,13 +2547,13 @@
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B26">
         <v>5.65</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -2427,7 +2567,7 @@
         <v>4.24</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -2435,13 +2575,13 @@
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2.83</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -2449,13 +2589,13 @@
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <v>1.41</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -2463,13 +2603,13 @@
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -2477,7 +2617,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2505,13 +2645,13 @@
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>5.48</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -2519,13 +2659,13 @@
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B35">
         <v>4.38</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -2539,7 +2679,7 @@
         <v>3.29</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -2547,13 +2687,13 @@
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>2.19</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -2561,13 +2701,13 @@
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B38">
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -2575,13 +2715,13 @@
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -2589,7 +2729,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2617,13 +2757,13 @@
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B43">
         <v>7.8</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -2631,13 +2771,13 @@
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B44">
         <v>6.24</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -2651,7 +2791,7 @@
         <v>4.68</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2659,13 +2799,13 @@
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>3.12</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2673,13 +2813,13 @@
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B47">
         <v>1.56</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -2687,13 +2827,13 @@
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -2701,7 +2841,7 @@
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2718,27 +2858,27 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B54">
         <v>0.73</v>
@@ -2764,27 +2904,27 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="G55" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -2798,7 +2938,7 @@
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -2812,7 +2952,7 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -2826,7 +2966,7 @@
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2840,7 +2980,7 @@
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -2857,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -2865,10 +3005,10 @@
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -2876,10 +3016,10 @@
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -2887,65 +3027,27 @@
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>18</v>
       </c>
       <c r="B69">
         <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G64 D67:G67 D66:G66 D76:G76 D75:G75 D72:G72 D70:G70 D69:G69 D68:G68 A65:B65 D65:G65 D71:G71 D73:G73 D74:G74" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G64 A66:B66 A68:B68 D66:G66 A67:B67 D67:G67 D68:G68 A65:B65 D65:G65" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>